--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16551,11 +16551,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16564,12 +16564,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17559,11 +17559,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17572,12 +17572,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20386,16 +20386,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20404,12 +20404,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -8276,7 +8276,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16551,11 +16551,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16564,12 +16564,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17559,11 +17559,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17572,12 +17572,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20386,16 +20386,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20404,12 +20404,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16551,11 +16551,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16564,12 +16564,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17559,11 +17559,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17572,12 +17572,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20386,16 +20386,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20404,12 +20404,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>INDUSTRIAL NOVOCHILE S.A.</t>
+          <t>Knauf Chile SPA</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16612,12 +16612,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20434,16 +20434,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20452,12 +20452,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16695,11 +16695,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16708,12 +16708,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17703,11 +17703,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17716,12 +17716,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20530,16 +20530,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20548,12 +20548,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16647,11 +16647,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16695,11 +16695,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16708,12 +16708,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17655,11 +17655,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17668,12 +17668,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17703,11 +17703,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17716,12 +17716,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20482,16 +20482,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20500,12 +20500,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20530,16 +20530,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20548,12 +20548,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16695,11 +16695,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16708,12 +16708,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17703,11 +17703,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17716,12 +17716,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20530,16 +20530,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20548,12 +20548,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16695,11 +16695,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16708,12 +16708,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17703,11 +17703,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17716,12 +17716,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20530,16 +20530,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20548,12 +20548,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desaladora para Agua Potable de Coquimbo</t>
+          <t>Aumento de Producción de la Planta de Yeso-Cartón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Knauf Chile SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>181000</v>
+        <v>25000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155746441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155802200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aumento de Producción de la Planta de Yeso-Cartón</t>
+          <t>Desaladora para Agua Potable de Coquimbo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Knauf Chile SPA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>181000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/05/2022</t>
+          <t>10/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155802200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155746441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aumento de Producción de la Planta de Yeso-Cartón</t>
+          <t>Desaladora para Agua Potable de Coquimbo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Knauf Chile SPA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>181000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155802200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155746441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Desaladora para Agua Potable de Coquimbo</t>
+          <t>Aumento de Producción de la Planta de Yeso-Cartón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Knauf Chile SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>181000</v>
+        <v>25000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155746441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155802200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16756,12 +16756,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17751,11 +17751,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17764,12 +17764,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20578,16 +20578,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20596,12 +20596,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>02/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16791,11 +16791,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17799,11 +17799,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20626,16 +20626,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20644,12 +20644,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CHILE EXPLORATION AND MINING S.A.</t>
+          <t>COMPAÑÍA MINERA LLANOS DE EL TOFO</t>
         </is>
       </c>
       <c r="F215" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/07/2022</t>
+          <t>11/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16839,11 +16839,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17847,11 +17847,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17860,12 +17860,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20674,16 +20674,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20692,12 +20692,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -16599,7 +16599,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F339" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17956,12 +17956,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20788,12 +20788,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16887,11 +16887,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17895,11 +17895,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17956,12 +17956,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20722,16 +20722,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20740,12 +20740,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20788,12 +20788,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/09/2022</t>
+          <t>04/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17956,12 +17956,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20788,12 +20788,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17956,12 +17956,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20788,12 +20788,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16948,12 +16948,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17956,12 +17956,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20770,16 +20770,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20788,12 +20788,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -13291,7 +13291,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17044,12 +17044,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18039,11 +18039,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18052,12 +18052,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20884,12 +20884,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17044,12 +17044,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18039,11 +18039,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18052,12 +18052,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20884,12 +20884,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -17367,7 +17367,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F356" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17044,12 +17044,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18039,11 +18039,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18052,12 +18052,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20884,12 +20884,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17044,12 +17044,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18039,11 +18039,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18052,12 +18052,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20884,12 +20884,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16983,11 +16983,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -16996,12 +16996,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17044,12 +17044,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -17991,11 +17991,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18004,12 +18004,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18039,11 +18039,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18052,12 +18052,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20818,16 +20818,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20836,12 +20836,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20866,16 +20866,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20884,12 +20884,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -17064,7 +17064,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17079,11 +17079,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17092,12 +17092,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18087,11 +18087,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18100,12 +18100,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20914,16 +20914,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20932,12 +20932,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación del Parque Fotovoltaico Faro de El Triunfo</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA FARO I SPA</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3500</v>
+        <v>66000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158444553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158540304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158540304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158636554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Ampliación del Parque Fotovoltaico Faro de El Triunfo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>FOTOVOLTAICA FARO I SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21875</v>
+        <v>3500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158636554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158444553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17127,11 +17127,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17140,12 +17140,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18135,11 +18135,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20962,16 +20962,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20980,12 +20980,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17223,11 +17223,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17236,12 +17236,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18231,11 +18231,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21058,16 +21058,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21076,12 +21076,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17175,11 +17175,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17188,12 +17188,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17223,11 +17223,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17236,12 +17236,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18231,11 +18231,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21010,16 +21010,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21028,12 +21028,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21058,16 +21058,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21076,12 +21076,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17223,11 +17223,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17236,12 +17236,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18231,11 +18231,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21058,16 +21058,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21076,12 +21076,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17223,11 +17223,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17236,12 +17236,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18231,11 +18231,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21058,16 +21058,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21076,12 +21076,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21875</v>
+        <v>66000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28/02/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158748010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21875</v>
+        <v>66000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158748010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,16 +434,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,16 +482,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21875</v>
+        <v>66000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,16 +434,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21875</v>
+        <v>66000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,16 +482,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chirihue</t>
+          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PFV CHIRIHUE SPA</t>
+          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>66000</v>
+        <v>21875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 kV Don Goyo - La Ruca</t>
+          <t>Parque Fotovoltaico Chirihue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GOYO TRANSMISORA DE ENERGIA S.A.</t>
+          <t>PFV CHIRIHUE SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21875</v>
+        <v>66000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>20/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158816862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158748010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/03/2023</t>
+          <t>28/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158748010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158688053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17284,12 +17284,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18279,11 +18279,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21106,16 +21106,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21124,12 +21124,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17319,11 +17319,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18327,11 +18327,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21154,16 +21154,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21172,12 +21172,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F363" t="n">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/10/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21394,16 +21394,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17367,11 +17367,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17380,12 +17380,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21202,16 +21202,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PLAN REGULADOR DE COQUIMBO, SECTOR FUNDO EL RECREO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21394,16 +21394,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17463,11 +17463,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17476,12 +17476,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18471,11 +18471,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18484,12 +18484,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17415,11 +17415,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17428,12 +17428,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17463,11 +17463,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17476,12 +17476,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18423,11 +18423,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18436,12 +18436,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18471,11 +18471,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18484,12 +18484,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21250,16 +21250,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21268,12 +21268,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17463,11 +17463,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17476,12 +17476,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17511,11 +17511,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17524,12 +17524,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18471,11 +18471,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18484,12 +18484,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18519,11 +18519,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18532,12 +18532,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21364,12 +21364,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17463,11 +17463,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17476,12 +17476,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17511,11 +17511,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17524,12 +17524,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18471,11 +18471,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18484,12 +18484,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18519,11 +18519,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18532,12 +18532,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21364,12 +21364,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2061</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
+          <t>Parque Fotovoltaico El Peñón</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LAS TACAS 1 BB SPA</t>
+          <t>EL PEÑON SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cerrillos</t>
+          <t>Parque Fotovoltaico Las Tacas I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CERRILLOS SPA</t>
+          <t>Las Tacas I SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Peñón</t>
+          <t>Parque Fotovoltaico Las Tacas I Bis Bis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EL PEÑON SPA</t>
+          <t>LAS TACAS 1 BB SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151799844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tacas I</t>
+          <t>Parque Fotovoltaico Cerrillos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Las Tacas I SpA</t>
+          <t>CERRILLOS SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151576068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
+          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17463,11 +17463,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coquimbo</t>
+          <t>martrade S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17476,12 +17476,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cultivo de juveniles de Abalón (Haliotis sp), en dependencias del Laboratorio central, Hatchery de ostiones, Martrade S.A. en Sector El Panul, en Coquimbo, IV Región de Coquimbo. (e-seia)</t>
+          <t>Plan Regulador Comunal de Coquimbo (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17511,11 +17511,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>martrade S.A.</t>
+          <t>Ilustre Municipalidad de Coquimbo</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17524,12 +17524,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2758583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
+          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18471,11 +18471,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18484,12 +18484,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejora del Sistema de Captura y Combustión Controlada de Gases del Antiguo Vertedero y del Actual Relleno Sanitario El Panul, Coquimbo, IV Región, Chile (e-seia)</t>
+          <t>Centro de Almacenamiento Para Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18519,11 +18519,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>BIOGAS TECHNOLOGY DE CHILE LIMITADA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18532,12 +18532,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21298,16 +21298,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>LIVE SEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Ampliación Productiva: Semillero de Abalón. Coquimbo, IV Región. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21346,16 +21346,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>LIVE SEAFOOD CHILE S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21364,12 +21364,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Coquimbo.xlsx
+++ b/data/Coquimbo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
